--- a/Organization/Attendance sheet.xlsx
+++ b/Organization/Attendance sheet.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacobchapman/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacobchapman/Documents/GitHub/ENSE-374-Group07-Project/Organization/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16320" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16280" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>AttendanceSheet</t>
   </si>
@@ -42,13 +42,22 @@
   </si>
   <si>
     <t>Jingkang Yang</t>
+  </si>
+  <si>
+    <t>October 7th, 2019</t>
+  </si>
+  <si>
+    <t>October 14th, 2019</t>
+  </si>
+  <si>
+    <t>Thanksgiving (No Meeting)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -63,8 +72,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -74,6 +90,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -86,15 +107,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -371,10 +398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D5" sqref="D5:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -404,7 +431,28 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D5:F5"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Organization/Attendance sheet.xlsx
+++ b/Organization/Attendance sheet.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>AttendanceSheet</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>Thanksgiving (No Meeting)</t>
+  </si>
+  <si>
+    <t>October 21st, 2019</t>
   </si>
 </sst>
 </file>
@@ -112,11 +115,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -398,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:F5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -449,6 +455,14 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D5:F5"/>
